--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,177 +446,193 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>498.9967197750712</v>
       </c>
       <c r="C2" t="n">
-        <v>1.401949881588854</v>
+        <v>1.456964987143047</v>
       </c>
       <c r="D2" t="n">
-        <v>87.35004686035694</v>
+        <v>72.96298031865109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>492.1457357075922</v>
+        <v>498.9967197750712</v>
       </c>
       <c r="C3" t="n">
-        <v>1.200651286295902</v>
+        <v>1.560304364600473</v>
       </c>
       <c r="D3" t="n">
-        <v>-149.3514526710417</v>
+        <v>63.37160262418058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.366916588567</v>
+        <v>492.8308341143401</v>
       </c>
       <c r="C4" t="n">
-        <v>1.28246448131365</v>
+        <v>1.253478801057904</v>
       </c>
       <c r="D4" t="n">
-        <v>-138.7324273664493</v>
+        <v>-158.6002811621383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>495.9137769447057</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.278545934989718</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-158.6002811621383</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
+        <v>495.9137769447057</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.292301219139077</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-155.5173383317729</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>498.9967197750712</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.558091795470628</v>
+      </c>
+      <c r="D7" t="n">
+        <v>63.71415182755447</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>498.9967197750712</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.441916935947758</v>
+      </c>
+      <c r="D8" t="n">
+        <v>79.12886597938217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>499.3392689784451</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.301566647906299</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-131.5388940955963</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.238151219437728</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-127.0857544517351</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>499.3392689784451</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.247209557298791</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-123.3177132146216</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>499.3392689784451</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.263700268706935</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-127.770852858483</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>499.3392689784451</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.243681980341209</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-125.7155576382393</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>503.7924086223065</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.198193593926289</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-124.0028116213696</v>
       </c>
     </row>
     <row r="14">
